--- a/uController/pinning.xlsx
+++ b/uController/pinning.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="167">
   <si>
     <t>A 1</t>
   </si>
@@ -381,13 +381,522 @@
   </si>
   <si>
     <t>Trimm</t>
+  </si>
+  <si>
+    <t>Uart</t>
+  </si>
+  <si>
+    <t>RX</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>RTS</t>
+  </si>
+  <si>
+    <t>CTS</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>Q4 / B0</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K2 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> H0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">M4 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFF84AE3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFF84AE3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFF84AE3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFF84AE3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> J0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> J1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N4</t>
+    </r>
+  </si>
+  <si>
+    <t>Menue</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>F0</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>f2</t>
+  </si>
+  <si>
+    <t>SSI2Fss</t>
+  </si>
+  <si>
+    <t>CLK</t>
+  </si>
+  <si>
+    <t>f3</t>
+  </si>
+  <si>
+    <t>Data0</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data1 </t>
+  </si>
+  <si>
+    <t>f0</t>
+  </si>
+  <si>
+    <t>5v</t>
+  </si>
+  <si>
+    <t>3v3</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>Reset</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>K0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 A3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">N5 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A7</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,8 +904,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFF84AE3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -451,6 +1007,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6161"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -464,7 +1050,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -473,11 +1059,21 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -486,9 +1082,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF6161"/>
+      <color rgb="FFFF0000"/>
+      <color rgb="FFD45712"/>
       <color rgb="FFF84AE3"/>
-      <color rgb="FFD45712"/>
-      <color rgb="FFFF0000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -789,610 +1386,788 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:AC36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC19" sqref="AC19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="24" max="24" width="13.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="8"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="X2">
+        <v>8</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="H3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="U3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="X3">
+        <v>8</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="V4" t="s">
+        <v>114</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" t="s">
+        <v>73</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7" t="s">
+        <v>74</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S8" t="s">
+        <v>107</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="X8" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="11">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="11">
+        <v>3</v>
+      </c>
+      <c r="AB8" s="11">
+        <v>4</v>
+      </c>
+      <c r="AC8" s="11"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S9" t="s">
+        <v>108</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="W9" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="X9" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="Y9" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB9" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="O10" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S10" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="W10" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB10" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S11" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="U11" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="W11" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="X11" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB11" s="17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E12" s="3"/>
+      <c r="H12" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S12" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="U12" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="W12" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="X12" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA12" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB12" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="H13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="S13" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="U13" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="H14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N14" s="3"/>
+      <c r="O14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="U14" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+      <c r="H15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="U15" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="H16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O16" t="s">
+        <v>78</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="S16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="U16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="W16" t="s">
+        <v>151</v>
+      </c>
+      <c r="X16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="R2">
+      <c r="O17" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="U17" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="W17" t="s">
+        <v>152</v>
+      </c>
+      <c r="X17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="U18" t="s">
+        <v>91</v>
+      </c>
+      <c r="W18" t="s">
+        <v>154</v>
+      </c>
+      <c r="X18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="W19" t="s">
+        <v>156</v>
+      </c>
+      <c r="X19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="S20" t="s">
+        <v>84</v>
+      </c>
+      <c r="U20" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S21" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="S22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="U22" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="S23" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U23" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="U24" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="U25" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="O27">
+        <v>5</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>11</v>
+      </c>
+      <c r="U27">
         <v>8</v>
       </c>
-      <c r="S2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="R3">
-        <v>8</v>
-      </c>
-      <c r="S3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P4" t="s">
-        <v>114</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="S4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="O5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" t="s">
-        <v>73</v>
-      </c>
-      <c r="O6" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" t="s">
-        <v>74</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" t="s">
-        <v>107</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M9" t="s">
-        <v>108</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="I10" t="s">
-        <v>98</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" t="s">
-        <v>28</v>
-      </c>
-      <c r="O10" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="V27">
+        <f>SUM(O27:U27)</f>
         <v>24</v>
       </c>
-      <c r="I11" t="s">
-        <v>99</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O11" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="D12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="O12" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" t="s">
-        <v>31</v>
-      </c>
-      <c r="O13" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" t="s">
-        <v>78</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" t="s">
-        <v>77</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="O18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="O19" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="M20" t="s">
-        <v>84</v>
-      </c>
-      <c r="O20" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="O21" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M22" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="O22" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M23" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="O23" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="O24" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="O25" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I27">
-        <v>5</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>11</v>
-      </c>
-      <c r="O27">
-        <v>8</v>
-      </c>
-      <c r="P27">
-        <f>SUM(I27:O27)</f>
-        <v>24</v>
+    </row>
+    <row r="29" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="X29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="X30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="X31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="X32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="X33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="X34" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="X35" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="X36" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1400,8 +2175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A83"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:A83"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/uController/pinning.xlsx
+++ b/uController/pinning.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="168">
   <si>
     <t>A 1</t>
   </si>
@@ -890,6 +890,9 @@
       </rPr>
       <t>A7</t>
     </r>
+  </si>
+  <si>
+    <t>RotaryBtn</t>
   </si>
 </sst>
 </file>
@@ -952,7 +955,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1037,6 +1040,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1050,7 +1059,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1069,11 +1078,12 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1389,23 +1399,24 @@
   <dimension ref="A1:AC36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC19" sqref="AC19"/>
+      <selection activeCell="Z18" sqref="Z18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1432,7 +1443,10 @@
       <c r="Q2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="R2" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="S2" s="19" t="s">
         <v>80</v>
       </c>
       <c r="U2" s="6" t="s">
@@ -1582,7 +1596,10 @@
       <c r="Q6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="S6" t="s">
+      <c r="R6" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="S6" s="19" t="s">
         <v>73</v>
       </c>
       <c r="U6" s="9" t="s">
@@ -1751,7 +1768,7 @@
       <c r="Q10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S10" s="18" t="s">
+      <c r="S10" s="17" t="s">
         <v>28</v>
       </c>
       <c r="U10" s="9" t="s">
@@ -1801,7 +1818,7 @@
       <c r="Q11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="S11" s="18" t="s">
+      <c r="S11" s="17" t="s">
         <v>29</v>
       </c>
       <c r="U11" s="9" t="s">
@@ -1822,7 +1839,7 @@
       <c r="AA11" t="s">
         <v>140</v>
       </c>
-      <c r="AB11" s="17" t="s">
+      <c r="AB11" s="16" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1843,7 +1860,7 @@
       <c r="Q12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S12" s="18" t="s">
+      <c r="S12" s="17" t="s">
         <v>30</v>
       </c>
       <c r="U12" s="9" t="s">
@@ -1864,7 +1881,7 @@
       <c r="AA12" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="AB12" s="17" t="s">
+      <c r="AB12" s="16" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1882,7 +1899,7 @@
       <c r="Q13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S13" s="18" t="s">
+      <c r="S13" s="17" t="s">
         <v>31</v>
       </c>
       <c r="U13" s="9" t="s">
